--- a/entrada-entrega.xlsx
+++ b/entrada-entrega.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eller/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndreWeber\Documents\5semestre\transcal\transcal-projeto1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9B1FF4-C871-BA4C-AEBB-0953560F6F5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A2AEA0-2B97-4ABF-8326-7B0CBFC6E1D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15540" windowHeight="22400" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nos" sheetId="1" r:id="rId1"/>
@@ -186,7 +186,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -512,12 +512,12 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="4" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
@@ -529,7 +529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -542,7 +542,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>4</v>
       </c>
@@ -552,7 +552,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>8</v>
       </c>
@@ -562,7 +562,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>8</v>
       </c>
@@ -578,7 +578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>8</v>
       </c>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>12</v>
       </c>
@@ -594,7 +594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>12</v>
       </c>
@@ -602,7 +602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>16</v>
       </c>
@@ -623,12 +623,12 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="7" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -646,7 +646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -665,7 +665,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -682,7 +682,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -696,7 +696,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -710,7 +710,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -724,7 +724,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -738,7 +738,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -752,7 +752,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
@@ -766,7 +766,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
@@ -780,7 +780,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
@@ -794,7 +794,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5</v>
       </c>
@@ -808,7 +808,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5</v>
       </c>
@@ -822,7 +822,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>6</v>
       </c>
@@ -836,7 +836,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>7</v>
       </c>
@@ -850,7 +850,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>7</v>
       </c>
@@ -864,7 +864,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>8</v>
       </c>
@@ -888,16 +888,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="5" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
@@ -912,7 +912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>3</v>
       </c>
@@ -920,7 +920,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>200</v>
+        <v>8000</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="9">
@@ -928,7 +928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -936,12 +936,12 @@
         <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>-1000</v>
+        <v>-40000</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -949,138 +949,138 @@
         <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>200</v>
+        <v>8000</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1096,16 +1096,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="4" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1140,7 +1140,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>4</v>
       </c>
@@ -1150,7 +1150,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>6</v>
       </c>
@@ -1160,7 +1160,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>8</v>
       </c>
@@ -1170,7 +1170,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>9</v>
       </c>
@@ -1180,7 +1180,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>9</v>
       </c>
@@ -1190,91 +1190,91 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
